--- a/storage/file/committest.xlsx
+++ b/storage/file/committest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vadpunj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\budget\storage\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0EAC7A-74E4-4BA0-A089-29DD1F1AB532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A681D4F6-A326-4EFA-A920-577F871E1308}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="6090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="แผ่น1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>บัญชี</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>ปีงบ</t>
+  </si>
+  <si>
+    <t>ศูนย์เงินทุน</t>
+  </si>
+  <si>
+    <t>1N00200</t>
   </si>
 </sst>
 </file>
@@ -344,13 +350,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -363,8 +371,11 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="3">
         <v>2563</v>
       </c>
@@ -377,8 +388,11 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <v>2563</v>
       </c>
@@ -391,8 +405,11 @@
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <v>2563</v>
       </c>
@@ -405,8 +422,11 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <v>2563</v>
       </c>
@@ -419,8 +439,11 @@
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <v>2563</v>
       </c>
@@ -433,8 +456,11 @@
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <v>2563</v>
       </c>
@@ -447,8 +473,11 @@
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <v>2563</v>
       </c>
@@ -461,8 +490,11 @@
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <v>2563</v>
       </c>
@@ -475,8 +507,11 @@
       <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <v>2563</v>
       </c>
@@ -489,8 +524,11 @@
       <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <v>2563</v>
       </c>
@@ -503,28 +541,31 @@
       <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>

--- a/storage/file/committest.xlsx
+++ b/storage/file/committest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\budget\storage\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A681D4F6-A326-4EFA-A920-577F871E1308}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7169F14D-9985-408A-BA67-A0F41B61C5AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="6090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>5X906103</t>
-  </si>
-  <si>
-    <t>1N00203</t>
   </si>
   <si>
     <t>5X906104</t>
@@ -55,7 +52,10 @@
     <t>ศูนย์เงินทุน</t>
   </si>
   <si>
-    <t>1N00200</t>
+    <t>1N10203</t>
+  </si>
+  <si>
+    <t>1N10200</t>
   </si>
 </sst>
 </file>
@@ -353,14 +353,14 @@
   <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -369,10 +369,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -386,7 +386,7 @@
         <v>2011000000</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -397,13 +397,13 @@
         <v>2563</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7">
         <v>1000000000</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -414,13 +414,13 @@
         <v>2563</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
         <v>12500000000</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -431,13 +431,13 @@
         <v>2563</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>1700000000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>11</v>
@@ -448,13 +448,13 @@
         <v>2563</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>5900000000</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>11</v>
@@ -465,13 +465,13 @@
         <v>2563</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>5001000000</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>11</v>
@@ -488,7 +488,7 @@
         <v>4100000000</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>11</v>
@@ -499,13 +499,13 @@
         <v>2563</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5">
         <v>2011000000</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>11</v>
@@ -516,13 +516,13 @@
         <v>2563</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <v>2011000000</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>11</v>
@@ -533,13 +533,13 @@
         <v>2563</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5">
         <v>2011000000</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>11</v>
